--- a/ZombaDisease1/ZombaData2ML.xlsx
+++ b/ZombaDisease1/ZombaData2ML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yuoffice.sharepoint.com/sites/LAPS-MHICCM-Fellows/Shared Documents/General/Data/Data from Patrick/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ZombaDisease1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0D4BDFAD-B95F-41C7-BC45-DB891405094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC67E73C-73FB-43A2-92E8-FD1E7FA33E00}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E74588-F2FC-42EA-90D5-25D18CBFEAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CF86727E-EBAC-4FB3-9931-F75AC58A23DC}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3981,7 +3981,7 @@
         <v>73.294285714285706</v>
       </c>
       <c r="G61" s="8">
-        <v>184.3</v>
+        <v>184.29999999999998</v>
       </c>
       <c r="H61" s="8">
         <v>22.367142857142898</v>
@@ -4036,7 +4036,9 @@
       <c r="F62" s="7">
         <v>80.367142857142895</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="8">
+        <v>179.7</v>
+      </c>
       <c r="H62" s="8">
         <v>21.23</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>80.08</v>
       </c>
       <c r="G63" s="8">
-        <v>175.1</v>
+        <v>175.09999999999997</v>
       </c>
       <c r="H63" s="8">
         <v>21.362857142857099</v>

--- a/ZombaDisease1/ZombaData2ML.xlsx
+++ b/ZombaDisease1/ZombaData2ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ZombaDisease1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E74588-F2FC-42EA-90D5-25D18CBFEAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8601C4E2-38B6-4A8D-AC6F-0D39365562A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CF86727E-EBAC-4FB3-9931-F75AC58A23DC}"/>
   </bookViews>
@@ -582,9 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C291CE0-DA4B-491E-906F-5ADA1CC56936}">
   <dimension ref="A1:Q349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61:G63"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -593,7 +593,7 @@
     <col min="2" max="3" width="8.68359375" style="17" customWidth="1"/>
     <col min="4" max="4" width="10.89453125" style="17" customWidth="1"/>
     <col min="5" max="5" width="9.68359375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.1015625" style="17" customWidth="1"/>
     <col min="7" max="7" width="15" style="17" customWidth="1"/>
     <col min="8" max="8" width="26.1015625" style="17" customWidth="1"/>
     <col min="9" max="9" width="21.89453125" style="17" customWidth="1"/>
